--- a/results/comparaison/WM/retardance/max_raw_data.xlsx
+++ b/results/comparaison/WM/retardance/max_raw_data.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CS7"/>
+  <dimension ref="A1:CW7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:97">
+    <row r="1" spans="1:101">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -661,896 +661,1754 @@
       <c r="CS1" s="1">
         <v>95</v>
       </c>
+      <c r="CT1" s="1">
+        <v>96</v>
+      </c>
+      <c r="CU1" s="1">
+        <v>97</v>
+      </c>
+      <c r="CV1" s="1">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="1">
+        <v>99</v>
+      </c>
     </row>
-    <row r="2" spans="1:97">
+    <row r="2" spans="1:101">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>40.72625698324023</v>
+        <v>37.70949720670392</v>
       </c>
       <c r="C2">
-        <v>37.20670391061453</v>
+        <v>13.57541899441341</v>
       </c>
       <c r="D2">
+        <v>34.6927374301676</v>
+      </c>
+      <c r="E2">
+        <v>18.60335195530726</v>
+      </c>
+      <c r="F2">
+        <v>20.61452513966481</v>
+      </c>
+      <c r="G2">
+        <v>18.10055865921788</v>
+      </c>
+      <c r="H2">
+        <v>29.16201117318436</v>
+      </c>
+      <c r="I2">
+        <v>16.08938547486034</v>
+      </c>
+      <c r="J2">
+        <v>19.60893854748604</v>
+      </c>
+      <c r="K2">
+        <v>33.68715083798883</v>
+      </c>
+      <c r="L2">
+        <v>36.70391061452514</v>
+      </c>
+      <c r="M2">
+        <v>33.68715083798883</v>
+      </c>
+      <c r="N2">
+        <v>14.07821229050279</v>
+      </c>
+      <c r="O2">
+        <v>20.11173184357542</v>
+      </c>
+      <c r="P2">
+        <v>21.62011173184358</v>
+      </c>
+      <c r="Q2">
+        <v>12.56983240223464</v>
+      </c>
+      <c r="R2">
+        <v>16.59217877094972</v>
+      </c>
+      <c r="S2">
+        <v>8.044692737430168</v>
+      </c>
+      <c r="T2">
+        <v>16.59217877094972</v>
+      </c>
+      <c r="U2">
+        <v>10.05586592178771</v>
+      </c>
+      <c r="V2">
+        <v>42.73743016759776</v>
+      </c>
+      <c r="W2">
+        <v>23.12849162011173</v>
+      </c>
+      <c r="X2">
+        <v>27.15083798882681</v>
+      </c>
+      <c r="Y2">
+        <v>21.1173184357542</v>
+      </c>
+      <c r="Z2">
+        <v>8.547486033519554</v>
+      </c>
+      <c r="AA2">
+        <v>16.59217877094972</v>
+      </c>
+      <c r="AB2">
         <v>19.10614525139665</v>
       </c>
-      <c r="E2">
+      <c r="AC2">
+        <v>8.547486033519554</v>
+      </c>
+      <c r="AD2">
+        <v>8.547486033519554</v>
+      </c>
+      <c r="AE2">
+        <v>16.59217877094972</v>
+      </c>
+      <c r="AF2">
         <v>20.61452513966481</v>
       </c>
-      <c r="F2">
-        <v>31.1731843575419</v>
-      </c>
-      <c r="G2">
-        <v>13.07262569832402</v>
-      </c>
-      <c r="H2">
-        <v>18.60335195530726</v>
-      </c>
-      <c r="I2">
-        <v>32.17877094972067</v>
-      </c>
-      <c r="J2">
-        <v>36.70391061452514</v>
-      </c>
-      <c r="K2">
-        <v>13.57541899441341</v>
-      </c>
-      <c r="L2">
-        <v>22.12290502793296</v>
-      </c>
-      <c r="M2">
-        <v>40.72625698324023</v>
-      </c>
-      <c r="N2">
-        <v>28.15642458100559</v>
-      </c>
-      <c r="O2">
-        <v>15.08379888268156</v>
-      </c>
-      <c r="P2">
-        <v>18.60335195530726</v>
-      </c>
-      <c r="Q2">
+      <c r="AG2">
         <v>17.09497206703911</v>
       </c>
-      <c r="R2">
-        <v>26.14525139664805</v>
-      </c>
-      <c r="S2">
-        <v>20.11173184357542</v>
-      </c>
-      <c r="T2">
-        <v>8.044692737430168</v>
-      </c>
-      <c r="U2">
-        <v>9.553072625698324</v>
-      </c>
-      <c r="V2">
-        <v>43.24022346368715</v>
-      </c>
-      <c r="W2">
-        <v>25.13966480446928</v>
-      </c>
-      <c r="X2">
-        <v>22.62569832402235</v>
-      </c>
-      <c r="Y2">
-        <v>22.62569832402235</v>
-      </c>
-      <c r="Z2">
-        <v>12.56983240223464</v>
-      </c>
-      <c r="AA2">
-        <v>27.6536312849162</v>
-      </c>
-      <c r="AB2">
-        <v>23.12849162011173</v>
-      </c>
-      <c r="AC2">
-        <v>35.19553072625698</v>
-      </c>
-      <c r="AD2">
-        <v>35.69832402234637</v>
-      </c>
-      <c r="AE2">
-        <v>33.68715083798883</v>
-      </c>
-      <c r="AF2">
-        <v>19.10614525139665</v>
-      </c>
-      <c r="AG2">
-        <v>7.039106145251397</v>
-      </c>
       <c r="AH2">
-        <v>22.62569832402235</v>
+        <v>17.59776536312849</v>
       </c>
       <c r="AI2">
-        <v>16.08938547486034</v>
+        <v>19.60893854748604</v>
       </c>
       <c r="AJ2">
-        <v>17.09497206703911</v>
+        <v>24.63687150837989</v>
       </c>
       <c r="AK2">
-        <v>19.10614525139665</v>
+        <v>34.6927374301676</v>
       </c>
       <c r="AL2">
-        <v>9.050279329608941</v>
+        <v>18.10055865921788</v>
       </c>
       <c r="AM2">
         <v>18.10055865921788</v>
       </c>
       <c r="AN2">
+        <v>21.1173184357542</v>
+      </c>
+      <c r="AO2">
+        <v>17.09497206703911</v>
+      </c>
+      <c r="AP2">
+        <v>20.11173184357542</v>
+      </c>
+      <c r="AQ2">
+        <v>36.70391061452514</v>
+      </c>
+      <c r="AR2">
+        <v>17.09497206703911</v>
+      </c>
+      <c r="AS2">
+        <v>3.519553072625698</v>
+      </c>
+      <c r="AT2">
+        <v>22.12290502793296</v>
+      </c>
+      <c r="AU2">
+        <v>15.58659217877095</v>
+      </c>
+      <c r="AV2">
+        <v>48.26815642458101</v>
+      </c>
+      <c r="AW2">
+        <v>28.65921787709497</v>
+      </c>
+      <c r="AX2">
+        <v>12.56983240223464</v>
+      </c>
+      <c r="AY2">
         <v>14.58100558659218</v>
       </c>
-      <c r="AO2">
+      <c r="AZ2">
+        <v>20.11173184357542</v>
+      </c>
+      <c r="BA2">
         <v>14.58100558659218</v>
       </c>
-      <c r="AP2">
-        <v>21.1173184357542</v>
-      </c>
-      <c r="AQ2">
-        <v>39.21787709497207</v>
-      </c>
-      <c r="AR2">
-        <v>28.65921787709497</v>
-      </c>
-      <c r="AS2">
-        <v>38.71508379888268</v>
-      </c>
-      <c r="AT2">
-        <v>9.553072625698324</v>
-      </c>
-      <c r="AU2">
-        <v>22.12290502793296</v>
-      </c>
-      <c r="AV2">
-        <v>17.09497206703911</v>
-      </c>
-      <c r="AW2">
-        <v>20.11173184357542</v>
-      </c>
-      <c r="AX2">
-        <v>21.62011173184358</v>
-      </c>
-      <c r="AY2">
-        <v>44.74860335195531</v>
-      </c>
-      <c r="AZ2">
+      <c r="BB2">
+        <v>4.525139664804469</v>
+      </c>
+      <c r="BC2">
+        <v>49.77653631284917</v>
+      </c>
+      <c r="BD2">
+        <v>40.72625698324023</v>
+      </c>
+      <c r="BE2">
+        <v>23.12849162011173</v>
+      </c>
+      <c r="BF2">
+        <v>14.07821229050279</v>
+      </c>
+      <c r="BG2">
+        <v>16.08938547486034</v>
+      </c>
+      <c r="BH2">
+        <v>10.5586592178771</v>
+      </c>
+      <c r="BI2">
         <v>31.67597765363129</v>
       </c>
-      <c r="BA2">
-        <v>17.59776536312849</v>
-      </c>
-      <c r="BB2">
-        <v>9.553072625698324</v>
-      </c>
-      <c r="BC2">
-        <v>28.65921787709497</v>
-      </c>
-      <c r="BD2">
-        <v>16.08938547486034</v>
-      </c>
-      <c r="BE2">
-        <v>20.11173184357542</v>
-      </c>
-      <c r="BF2">
-        <v>18.60335195530726</v>
-      </c>
-      <c r="BG2">
-        <v>40.72625698324023</v>
-      </c>
-      <c r="BH2">
-        <v>18.10055865921788</v>
-      </c>
-      <c r="BI2">
-        <v>9.050279329608941</v>
-      </c>
       <c r="BJ2">
-        <v>36.70391061452514</v>
+        <v>39.72067039106145</v>
       </c>
       <c r="BK2">
-        <v>9.050279329608941</v>
+        <v>13.07262569832402</v>
       </c>
       <c r="BL2">
-        <v>41.22905027932961</v>
+        <v>15.08379888268156</v>
       </c>
       <c r="BM2">
-        <v>21.1173184357542</v>
+        <v>32.17877094972067</v>
       </c>
       <c r="BN2">
-        <v>32.68156424581006</v>
+        <v>27.6536312849162</v>
       </c>
       <c r="BO2">
-        <v>15.08379888268156</v>
+        <v>12.06703910614525</v>
       </c>
       <c r="BP2">
-        <v>34.18994413407822</v>
+        <v>5.53072625698324</v>
       </c>
       <c r="BQ2">
-        <v>11.06145251396648</v>
+        <v>35.69832402234637</v>
       </c>
       <c r="BR2">
-        <v>38.71508379888268</v>
+        <v>30.67039106145252</v>
       </c>
       <c r="BS2">
-        <v>32.68156424581006</v>
+        <v>10.05586592178771</v>
       </c>
       <c r="BT2">
         <v>12.06703910614525</v>
       </c>
       <c r="BU2">
+        <v>22.12290502793296</v>
+      </c>
+      <c r="BV2">
+        <v>25.64245810055866</v>
+      </c>
+      <c r="BW2">
+        <v>7.541899441340782</v>
+      </c>
+      <c r="BX2">
+        <v>26.64804469273743</v>
+      </c>
+      <c r="BY2">
+        <v>4.022346368715084</v>
+      </c>
+      <c r="BZ2">
+        <v>30.67039106145252</v>
+      </c>
+      <c r="CA2">
+        <v>23.12849162011173</v>
+      </c>
+      <c r="CB2">
+        <v>3.519553072625698</v>
+      </c>
+      <c r="CC2">
         <v>9.553072625698324</v>
       </c>
-      <c r="BV2">
-        <v>27.15083798882681</v>
-      </c>
-      <c r="BW2">
-        <v>22.62569832402235</v>
-      </c>
-      <c r="BX2">
-        <v>39.72067039106145</v>
-      </c>
-      <c r="BY2">
-        <v>28.65921787709497</v>
-      </c>
-      <c r="BZ2">
-        <v>24.63687150837989</v>
-      </c>
-      <c r="CA2">
+      <c r="CD2">
         <v>8.044692737430168</v>
       </c>
-      <c r="CB2">
-        <v>24.63687150837989</v>
-      </c>
-      <c r="CC2">
-        <v>27.6536312849162</v>
-      </c>
-      <c r="CD2">
+      <c r="CE2">
+        <v>11.06145251396648</v>
+      </c>
+      <c r="CF2">
+        <v>3.519553072625698</v>
+      </c>
+      <c r="CG2">
+        <v>1.508379888268156</v>
+      </c>
+      <c r="CH2">
+        <v>10.05586592178771</v>
+      </c>
+      <c r="CI2">
+        <v>6.033519553072626</v>
+      </c>
+      <c r="CJ2">
+        <v>4.022346368715084</v>
+      </c>
+      <c r="CK2">
+        <v>9.553072625698324</v>
+      </c>
+      <c r="CL2">
+        <v>10.5586592178771</v>
+      </c>
+      <c r="CM2">
+        <v>2.011173184357542</v>
+      </c>
+      <c r="CN2">
+        <v>4.525139664804469</v>
+      </c>
+      <c r="CO2">
+        <v>2.513966480446927</v>
+      </c>
+      <c r="CP2">
         <v>7.541899441340782</v>
       </c>
-      <c r="CE2">
-        <v>8.044692737430168</v>
-      </c>
-      <c r="CF2">
-        <v>20.11173184357542</v>
-      </c>
-      <c r="CG2">
-        <v>16.59217877094972</v>
-      </c>
-      <c r="CH2">
-        <v>16.59217877094972</v>
-      </c>
-      <c r="CI2">
-        <v>18.60335195530726</v>
-      </c>
-      <c r="CJ2">
-        <v>21.1173184357542</v>
-      </c>
-      <c r="CK2">
-        <v>9.050279329608941</v>
-      </c>
-      <c r="CL2">
-        <v>8.044692737430168</v>
-      </c>
-      <c r="CM2">
-        <v>5.53072625698324</v>
-      </c>
-      <c r="CN2">
-        <v>13.57541899441341</v>
-      </c>
-      <c r="CO2">
-        <v>9.553072625698324</v>
-      </c>
-      <c r="CP2">
-        <v>28.65921787709497</v>
-      </c>
       <c r="CQ2">
-        <v>22.62569832402235</v>
+        <v>7.039106145251397</v>
       </c>
       <c r="CR2">
+        <v>31.1731843575419</v>
+      </c>
+      <c r="CS2">
+        <v>2.513966480446927</v>
+      </c>
+      <c r="CT2">
         <v>11.06145251396648</v>
       </c>
-      <c r="CS2">
-        <v>35.69832402234637</v>
+      <c r="CU2">
+        <v>10.5586592178771</v>
+      </c>
+      <c r="CV2">
+        <v>12.56983240223464</v>
+      </c>
+      <c r="CW2">
+        <v>5.027932960893855</v>
       </c>
     </row>
-    <row r="3" spans="1:97">
+    <row r="3" spans="1:101">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>30.16759776536313</v>
+        <v>25.13966480446928</v>
+      </c>
+      <c r="C3">
+        <v>3.519553072625698</v>
+      </c>
+      <c r="D3">
+        <v>4.022346368715084</v>
       </c>
       <c r="E3">
         <v>11.06145251396648</v>
       </c>
       <c r="F3">
+        <v>10.05586592178771</v>
+      </c>
+      <c r="G3">
+        <v>4.525139664804469</v>
+      </c>
+      <c r="H3">
+        <v>7.541899441340782</v>
+      </c>
+      <c r="I3">
+        <v>3.519553072625698</v>
+      </c>
+      <c r="J3">
+        <v>12.06703910614525</v>
+      </c>
+      <c r="K3">
+        <v>3.016759776536313</v>
+      </c>
+      <c r="L3">
+        <v>4.022346368715084</v>
+      </c>
+      <c r="M3">
+        <v>23.12849162011173</v>
+      </c>
+      <c r="N3">
+        <v>11.56424581005587</v>
+      </c>
+      <c r="O3">
+        <v>21.62011173184358</v>
+      </c>
+      <c r="P3">
+        <v>14.07821229050279</v>
+      </c>
+      <c r="Q3">
+        <v>8.547486033519554</v>
+      </c>
+      <c r="R3">
+        <v>6.536312849162012</v>
+      </c>
+      <c r="S3">
+        <v>3.519553072625698</v>
+      </c>
+      <c r="T3">
+        <v>2.011173184357542</v>
+      </c>
+      <c r="U3">
+        <v>14.07821229050279</v>
+      </c>
+      <c r="V3">
+        <v>15.58659217877095</v>
+      </c>
+      <c r="W3">
+        <v>5.53072625698324</v>
+      </c>
+      <c r="X3">
+        <v>20.11173184357542</v>
+      </c>
+      <c r="Y3">
+        <v>13.57541899441341</v>
+      </c>
+      <c r="Z3">
+        <v>13.07262569832402</v>
+      </c>
+      <c r="AA3">
+        <v>12.56983240223464</v>
+      </c>
+      <c r="AB3">
+        <v>3.519553072625698</v>
+      </c>
+      <c r="AC3">
+        <v>4.525139664804469</v>
+      </c>
+      <c r="AD3">
+        <v>9.050279329608941</v>
+      </c>
+      <c r="AF3">
+        <v>17.59776536312849</v>
+      </c>
+      <c r="AG3">
+        <v>6.536312849162012</v>
+      </c>
+      <c r="AH3">
+        <v>2.513966480446927</v>
+      </c>
+      <c r="AI3">
+        <v>10.5586592178771</v>
+      </c>
+      <c r="AJ3">
+        <v>11.06145251396648</v>
+      </c>
+      <c r="AL3">
+        <v>6.536312849162012</v>
+      </c>
+      <c r="AM3">
+        <v>15.08379888268156</v>
+      </c>
+      <c r="AN3">
+        <v>9.553072625698324</v>
+      </c>
+      <c r="AO3">
+        <v>7.541899441340782</v>
+      </c>
+      <c r="AP3">
+        <v>17.59776536312849</v>
+      </c>
+      <c r="AQ3">
+        <v>30.67039106145252</v>
+      </c>
+      <c r="AR3">
+        <v>4.525139664804469</v>
+      </c>
+      <c r="AS3">
+        <v>3.016759776536313</v>
+      </c>
+      <c r="AT3">
+        <v>16.08938547486034</v>
+      </c>
+      <c r="AU3">
+        <v>2.513966480446927</v>
+      </c>
+      <c r="AV3">
+        <v>35.69832402234637</v>
+      </c>
+      <c r="AX3">
+        <v>9.553072625698324</v>
+      </c>
+      <c r="AY3">
+        <v>6.033519553072626</v>
+      </c>
+      <c r="AZ3">
         <v>14.58100558659218</v>
       </c>
-      <c r="H3">
-        <v>18.10055865921788</v>
-      </c>
-      <c r="I3">
-        <v>19.10614525139665</v>
-      </c>
-      <c r="K3">
-        <v>12.06703910614525</v>
-      </c>
-      <c r="M3">
-        <v>26.64804469273743</v>
-      </c>
-      <c r="N3">
+      <c r="BA3">
+        <v>8.547486033519554</v>
+      </c>
+      <c r="BB3">
+        <v>3.519553072625698</v>
+      </c>
+      <c r="BC3">
+        <v>11.06145251396648</v>
+      </c>
+      <c r="BD3">
+        <v>24.63687150837989</v>
+      </c>
+      <c r="BE3">
+        <v>3.519553072625698</v>
+      </c>
+      <c r="BF3">
+        <v>7.541899441340782</v>
+      </c>
+      <c r="BG3">
+        <v>10.5586592178771</v>
+      </c>
+      <c r="BH3">
+        <v>5.027932960893855</v>
+      </c>
+      <c r="BI3">
+        <v>11.06145251396648</v>
+      </c>
+      <c r="BJ3">
+        <v>16.08938547486034</v>
+      </c>
+      <c r="BK3">
+        <v>4.525139664804469</v>
+      </c>
+      <c r="BM3">
         <v>18.60335195530726</v>
       </c>
-      <c r="O3">
-        <v>8.547486033519554</v>
-      </c>
-      <c r="P3">
+      <c r="BN3">
+        <v>7.541899441340782</v>
+      </c>
+      <c r="BO3">
+        <v>9.553072625698324</v>
+      </c>
+      <c r="BP3">
+        <v>4.525139664804469</v>
+      </c>
+      <c r="BQ3">
+        <v>34.18994413407822</v>
+      </c>
+      <c r="BR3">
+        <v>17.09497206703911</v>
+      </c>
+      <c r="BS3">
         <v>8.044692737430168</v>
       </c>
-      <c r="S3">
+      <c r="BT3">
+        <v>11.06145251396648</v>
+      </c>
+      <c r="BU3">
+        <v>16.08938547486034</v>
+      </c>
+      <c r="BV3">
+        <v>4.525139664804469</v>
+      </c>
+      <c r="BW3">
+        <v>9.553072625698324</v>
+      </c>
+      <c r="BX3">
+        <v>19.60893854748604</v>
+      </c>
+      <c r="BY3">
+        <v>4.525139664804469</v>
+      </c>
+      <c r="BZ3">
+        <v>7.039106145251397</v>
+      </c>
+      <c r="CA3">
+        <v>9.553072625698324</v>
+      </c>
+      <c r="CB3">
+        <v>3.519553072625698</v>
+      </c>
+      <c r="CC3">
+        <v>8.044692737430168</v>
+      </c>
+      <c r="CD3">
         <v>6.536312849162012</v>
       </c>
-      <c r="W3">
-        <v>8.044692737430168</v>
-      </c>
-      <c r="Y3">
-        <v>16.08938547486034</v>
-      </c>
-      <c r="Z3">
-        <v>12.56983240223464</v>
-      </c>
-      <c r="AA3">
-        <v>15.58659217877095</v>
-      </c>
-      <c r="AB3">
-        <v>24.63687150837989</v>
-      </c>
-      <c r="AQ3">
-        <v>30.16759776536313</v>
-      </c>
-      <c r="AR3">
-        <v>27.15083798882681</v>
-      </c>
-      <c r="AS3">
-        <v>32.68156424581006</v>
-      </c>
-      <c r="AT3">
+      <c r="CE3">
+        <v>2.011173184357542</v>
+      </c>
+      <c r="CF3">
+        <v>7.039106145251397</v>
+      </c>
+      <c r="CG3">
+        <v>5.53072625698324</v>
+      </c>
+      <c r="CH3">
         <v>13.57541899441341</v>
       </c>
-      <c r="AU3">
-        <v>22.12290502793296</v>
-      </c>
-      <c r="AX3">
-        <v>13.07262569832402</v>
-      </c>
-      <c r="BB3">
-        <v>8.547486033519554</v>
-      </c>
-      <c r="BC3">
-        <v>32.17877094972067</v>
-      </c>
-      <c r="BF3">
-        <v>9.553072625698324</v>
-      </c>
-      <c r="BI3">
-        <v>8.547486033519554</v>
-      </c>
-      <c r="BJ3">
-        <v>19.10614525139665</v>
-      </c>
-      <c r="BK3">
-        <v>5.53072625698324</v>
-      </c>
-      <c r="BO3">
-        <v>8.547486033519554</v>
-      </c>
-      <c r="BP3">
-        <v>19.60893854748604</v>
-      </c>
-      <c r="BQ3">
-        <v>8.044692737430168</v>
-      </c>
-      <c r="BR3">
-        <v>22.12290502793296</v>
-      </c>
-      <c r="BS3">
-        <v>20.61452513966481</v>
-      </c>
-      <c r="BU3">
-        <v>10.05586592178771</v>
-      </c>
-      <c r="BV3">
-        <v>15.08379888268156</v>
-      </c>
-      <c r="CG3">
-        <v>28.15642458100559</v>
+      <c r="CI3">
+        <v>7.541899441340782</v>
       </c>
       <c r="CK3">
-        <v>8.547486033519554</v>
+        <v>4.525139664804469</v>
+      </c>
+      <c r="CL3">
+        <v>2.011173184357542</v>
+      </c>
+      <c r="CM3">
+        <v>7.541899441340782</v>
       </c>
       <c r="CN3">
-        <v>10.05586592178771</v>
+        <v>7.541899441340782</v>
+      </c>
+      <c r="CO3">
+        <v>3.016759776536313</v>
+      </c>
+      <c r="CP3">
+        <v>3.519553072625698</v>
+      </c>
+      <c r="CQ3">
+        <v>21.62011173184358</v>
+      </c>
+      <c r="CR3">
+        <v>2.011173184357542</v>
+      </c>
+      <c r="CS3">
+        <v>2.513966480446927</v>
+      </c>
+      <c r="CT3">
+        <v>2.513966480446927</v>
+      </c>
+      <c r="CU3">
+        <v>2.513966480446927</v>
+      </c>
+      <c r="CV3">
+        <v>3.016759776536313</v>
       </c>
     </row>
-    <row r="4" spans="1:97">
+    <row r="4" spans="1:101">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>24.1340782122905</v>
+        <v>23.63128491620112</v>
+      </c>
+      <c r="C4">
+        <v>2.011173184357542</v>
+      </c>
+      <c r="D4">
+        <v>2.513966480446927</v>
       </c>
       <c r="E4">
+        <v>10.05586592178771</v>
+      </c>
+      <c r="F4">
+        <v>7.039106145251397</v>
+      </c>
+      <c r="H4">
+        <v>5.53072625698324</v>
+      </c>
+      <c r="I4">
+        <v>8.044692737430168</v>
+      </c>
+      <c r="J4">
+        <v>13.57541899441341</v>
+      </c>
+      <c r="K4">
+        <v>19.60893854748604</v>
+      </c>
+      <c r="L4">
+        <v>15.08379888268156</v>
+      </c>
+      <c r="M4">
+        <v>22.62569832402235</v>
+      </c>
+      <c r="N4">
+        <v>11.06145251396648</v>
+      </c>
+      <c r="O4">
+        <v>13.57541899441341</v>
+      </c>
+      <c r="P4">
+        <v>16.08938547486034</v>
+      </c>
+      <c r="Q4">
+        <v>2.513966480446927</v>
+      </c>
+      <c r="R4">
+        <v>13.07262569832402</v>
+      </c>
+      <c r="S4">
+        <v>5.53072625698324</v>
+      </c>
+      <c r="T4">
+        <v>8.044692737430168</v>
+      </c>
+      <c r="U4">
+        <v>9.050279329608941</v>
+      </c>
+      <c r="V4">
+        <v>13.07262569832402</v>
+      </c>
+      <c r="W4">
         <v>10.5586592178771</v>
       </c>
-      <c r="F4">
+      <c r="X4">
+        <v>18.10055865921788</v>
+      </c>
+      <c r="Y4">
+        <v>17.59776536312849</v>
+      </c>
+      <c r="Z4">
+        <v>13.07262569832402</v>
+      </c>
+      <c r="AA4">
+        <v>8.044692737430168</v>
+      </c>
+      <c r="AB4">
+        <v>2.513966480446927</v>
+      </c>
+      <c r="AC4">
+        <v>4.525139664804469</v>
+      </c>
+      <c r="AD4">
+        <v>10.05586592178771</v>
+      </c>
+      <c r="AF4">
+        <v>15.58659217877095</v>
+      </c>
+      <c r="AG4">
+        <v>12.56983240223464</v>
+      </c>
+      <c r="AH4">
+        <v>3.016759776536313</v>
+      </c>
+      <c r="AI4">
+        <v>6.536312849162012</v>
+      </c>
+      <c r="AJ4">
+        <v>8.044692737430168</v>
+      </c>
+      <c r="AL4">
+        <v>4.525139664804469</v>
+      </c>
+      <c r="AM4">
+        <v>19.10614525139665</v>
+      </c>
+      <c r="AN4">
+        <v>13.07262569832402</v>
+      </c>
+      <c r="AO4">
+        <v>11.06145251396648</v>
+      </c>
+      <c r="AP4">
+        <v>17.59776536312849</v>
+      </c>
+      <c r="AQ4">
+        <v>17.09497206703911</v>
+      </c>
+      <c r="AR4">
+        <v>4.022346368715084</v>
+      </c>
+      <c r="AT4">
+        <v>7.039106145251397</v>
+      </c>
+      <c r="AU4">
         <v>6.033519553072626</v>
       </c>
-      <c r="H4">
-        <v>14.07821229050279</v>
-      </c>
-      <c r="I4">
+      <c r="AV4">
+        <v>29.66480446927374</v>
+      </c>
+      <c r="AZ4">
+        <v>11.56424581005587</v>
+      </c>
+      <c r="BA4">
+        <v>5.53072625698324</v>
+      </c>
+      <c r="BB4">
+        <v>4.525139664804469</v>
+      </c>
+      <c r="BC4">
+        <v>13.07262569832402</v>
+      </c>
+      <c r="BD4">
+        <v>19.10614525139665</v>
+      </c>
+      <c r="BE4">
+        <v>6.033519553072626</v>
+      </c>
+      <c r="BF4">
+        <v>12.56983240223464</v>
+      </c>
+      <c r="BG4">
+        <v>12.06703910614525</v>
+      </c>
+      <c r="BH4">
+        <v>5.53072625698324</v>
+      </c>
+      <c r="BI4">
+        <v>30.67039106145252</v>
+      </c>
+      <c r="BJ4">
+        <v>9.050279329608941</v>
+      </c>
+      <c r="BK4">
+        <v>3.016759776536313</v>
+      </c>
+      <c r="BL4">
+        <v>6.536312849162012</v>
+      </c>
+      <c r="BM4">
+        <v>18.60335195530726</v>
+      </c>
+      <c r="BN4">
+        <v>5.027932960893855</v>
+      </c>
+      <c r="BO4">
+        <v>13.07262569832402</v>
+      </c>
+      <c r="BP4">
+        <v>9.553072625698324</v>
+      </c>
+      <c r="BQ4">
+        <v>38.71508379888268</v>
+      </c>
+      <c r="BR4">
+        <v>18.60335195530726</v>
+      </c>
+      <c r="BT4">
+        <v>11.56424581005587</v>
+      </c>
+      <c r="BU4">
+        <v>20.11173184357542</v>
+      </c>
+      <c r="BV4">
+        <v>7.541899441340782</v>
+      </c>
+      <c r="BW4">
+        <v>11.56424581005587</v>
+      </c>
+      <c r="BX4">
+        <v>17.09497206703911</v>
+      </c>
+      <c r="BY4">
+        <v>4.022346368715084</v>
+      </c>
+      <c r="BZ4">
+        <v>4.525139664804469</v>
+      </c>
+      <c r="CA4">
+        <v>11.06145251396648</v>
+      </c>
+      <c r="CB4">
+        <v>4.022346368715084</v>
+      </c>
+      <c r="CC4">
+        <v>10.05586592178771</v>
+      </c>
+      <c r="CD4">
+        <v>9.553072625698324</v>
+      </c>
+      <c r="CE4">
+        <v>3.519553072625698</v>
+      </c>
+      <c r="CF4">
+        <v>6.536312849162012</v>
+      </c>
+      <c r="CG4">
+        <v>3.016759776536313</v>
+      </c>
+      <c r="CH4">
+        <v>11.06145251396648</v>
+      </c>
+      <c r="CI4">
+        <v>3.519553072625698</v>
+      </c>
+      <c r="CK4">
+        <v>3.016759776536313</v>
+      </c>
+      <c r="CL4">
+        <v>17.59776536312849</v>
+      </c>
+      <c r="CM4">
+        <v>4.022346368715084</v>
+      </c>
+      <c r="CN4">
+        <v>4.525139664804469</v>
+      </c>
+      <c r="CO4">
+        <v>3.519553072625698</v>
+      </c>
+      <c r="CP4">
+        <v>2.011173184357542</v>
+      </c>
+      <c r="CQ4">
         <v>19.60893854748604</v>
       </c>
-      <c r="K4">
-        <v>15.58659217877095</v>
-      </c>
-      <c r="M4">
-        <v>27.6536312849162</v>
-      </c>
-      <c r="N4">
-        <v>16.59217877094972</v>
-      </c>
-      <c r="O4">
-        <v>12.56983240223464</v>
-      </c>
-      <c r="P4">
-        <v>13.07262569832402</v>
-      </c>
-      <c r="S4">
-        <v>8.547486033519554</v>
-      </c>
-      <c r="W4">
-        <v>16.59217877094972</v>
-      </c>
-      <c r="Y4">
-        <v>15.58659217877095</v>
-      </c>
-      <c r="Z4">
-        <v>12.06703910614525</v>
-      </c>
-      <c r="AB4">
-        <v>9.050279329608941</v>
-      </c>
-      <c r="AH4">
-        <v>14.58100558659218</v>
-      </c>
-      <c r="AJ4">
-        <v>11.56424581005587</v>
-      </c>
-      <c r="AK4">
-        <v>4.525139664804469</v>
-      </c>
-      <c r="AM4">
-        <v>13.07262569832402</v>
-      </c>
-      <c r="AQ4">
-        <v>29.16201117318436</v>
-      </c>
-      <c r="AR4">
-        <v>14.58100558659218</v>
-      </c>
-      <c r="AS4">
-        <v>25.13966480446928</v>
-      </c>
-      <c r="AT4">
-        <v>10.05586592178771</v>
-      </c>
-      <c r="AU4">
-        <v>15.58659217877095</v>
-      </c>
-      <c r="AX4">
-        <v>6.536312849162012</v>
-      </c>
-      <c r="BB4">
-        <v>7.039106145251397</v>
-      </c>
-      <c r="BC4">
-        <v>24.1340782122905</v>
-      </c>
-      <c r="BI4">
-        <v>11.56424581005587</v>
-      </c>
-      <c r="BJ4">
-        <v>19.10614525139665</v>
-      </c>
-      <c r="BK4">
+      <c r="CR4">
+        <v>3.016759776536313</v>
+      </c>
+      <c r="CS4">
+        <v>7.541899441340782</v>
+      </c>
+      <c r="CT4">
+        <v>7.541899441340782</v>
+      </c>
+      <c r="CU4">
+        <v>3.016759776536313</v>
+      </c>
+      <c r="CV4">
         <v>5.53072625698324</v>
       </c>
-      <c r="BP4">
-        <v>30.16759776536313</v>
-      </c>
-      <c r="BS4">
-        <v>22.62569832402235</v>
-      </c>
-      <c r="BU4">
-        <v>12.06703910614525</v>
-      </c>
-      <c r="BV4">
-        <v>15.58659217877095</v>
-      </c>
-      <c r="CF4">
-        <v>22.62569832402235</v>
-      </c>
-      <c r="CH4">
-        <v>9.553072625698324</v>
-      </c>
-      <c r="CK4">
-        <v>11.06145251396648</v>
-      </c>
-      <c r="CN4">
-        <v>20.11173184357542</v>
+      <c r="CW4">
+        <v>6.033519553072626</v>
       </c>
     </row>
-    <row r="5" spans="1:97">
+    <row r="5" spans="1:101">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.62569832402235</v>
+        <v>27.15083798882681</v>
+      </c>
+      <c r="C5">
+        <v>3.519553072625698</v>
       </c>
       <c r="D5">
-        <v>10.05586592178771</v>
+        <v>3.519553072625698</v>
       </c>
       <c r="E5">
-        <v>12.06703910614525</v>
+        <v>3.519553072625698</v>
       </c>
       <c r="F5">
+        <v>10.5586592178771</v>
+      </c>
+      <c r="H5">
         <v>8.547486033519554</v>
       </c>
-      <c r="H5">
-        <v>17.09497206703911</v>
-      </c>
       <c r="I5">
-        <v>16.08938547486034</v>
+        <v>3.016759776536313</v>
+      </c>
+      <c r="J5">
+        <v>17.59776536312849</v>
       </c>
       <c r="K5">
         <v>14.07821229050279</v>
       </c>
+      <c r="L5">
+        <v>2.513966480446927</v>
+      </c>
       <c r="M5">
+        <v>10.05586592178771</v>
+      </c>
+      <c r="N5">
+        <v>8.547486033519554</v>
+      </c>
+      <c r="O5">
+        <v>13.57541899441341</v>
+      </c>
+      <c r="P5">
+        <v>18.60335195530726</v>
+      </c>
+      <c r="Q5">
+        <v>2.011173184357542</v>
+      </c>
+      <c r="R5">
+        <v>9.050279329608941</v>
+      </c>
+      <c r="S5">
+        <v>1.005586592178771</v>
+      </c>
+      <c r="T5">
+        <v>6.033519553072626</v>
+      </c>
+      <c r="U5">
+        <v>11.56424581005587</v>
+      </c>
+      <c r="V5">
+        <v>9.050279329608941</v>
+      </c>
+      <c r="W5">
+        <v>7.541899441340782</v>
+      </c>
+      <c r="X5">
+        <v>8.547486033519554</v>
+      </c>
+      <c r="Y5">
+        <v>17.09497206703911</v>
+      </c>
+      <c r="Z5">
+        <v>12.06703910614525</v>
+      </c>
+      <c r="AA5">
+        <v>9.050279329608941</v>
+      </c>
+      <c r="AB5">
+        <v>1.508379888268156</v>
+      </c>
+      <c r="AC5">
+        <v>2.513966480446927</v>
+      </c>
+      <c r="AD5">
         <v>6.536312849162012</v>
       </c>
-      <c r="N5">
+      <c r="AF5">
+        <v>19.10614525139665</v>
+      </c>
+      <c r="AG5">
+        <v>8.547486033519554</v>
+      </c>
+      <c r="AH5">
+        <v>3.519553072625698</v>
+      </c>
+      <c r="AI5">
+        <v>10.05586592178771</v>
+      </c>
+      <c r="AJ5">
+        <v>5.53072625698324</v>
+      </c>
+      <c r="AL5">
+        <v>5.027932960893855</v>
+      </c>
+      <c r="AM5">
+        <v>11.56424581005587</v>
+      </c>
+      <c r="AN5">
+        <v>12.56983240223464</v>
+      </c>
+      <c r="AO5">
+        <v>5.53072625698324</v>
+      </c>
+      <c r="AP5">
+        <v>13.57541899441341</v>
+      </c>
+      <c r="AQ5">
+        <v>28.15642458100559</v>
+      </c>
+      <c r="AR5">
+        <v>5.027932960893855</v>
+      </c>
+      <c r="AS5">
+        <v>4.022346368715084</v>
+      </c>
+      <c r="AT5">
+        <v>8.547486033519554</v>
+      </c>
+      <c r="AU5">
+        <v>2.011173184357542</v>
+      </c>
+      <c r="AV5">
+        <v>32.17877094972067</v>
+      </c>
+      <c r="AY5">
+        <v>5.027932960893855</v>
+      </c>
+      <c r="AZ5">
+        <v>11.06145251396648</v>
+      </c>
+      <c r="BA5">
+        <v>12.56983240223464</v>
+      </c>
+      <c r="BB5">
+        <v>4.525139664804469</v>
+      </c>
+      <c r="BC5">
+        <v>11.56424581005587</v>
+      </c>
+      <c r="BD5">
         <v>18.60335195530726</v>
       </c>
-      <c r="O5">
+      <c r="BE5">
+        <v>3.519553072625698</v>
+      </c>
+      <c r="BF5">
+        <v>7.541899441340782</v>
+      </c>
+      <c r="BG5">
+        <v>12.56983240223464</v>
+      </c>
+      <c r="BH5">
+        <v>2.513966480446927</v>
+      </c>
+      <c r="BI5">
+        <v>16.08938547486034</v>
+      </c>
+      <c r="BJ5">
+        <v>4.022346368715084</v>
+      </c>
+      <c r="BK5">
+        <v>2.513966480446927</v>
+      </c>
+      <c r="BM5">
+        <v>18.10055865921788</v>
+      </c>
+      <c r="BN5">
+        <v>2.513966480446927</v>
+      </c>
+      <c r="BO5">
+        <v>12.56983240223464</v>
+      </c>
+      <c r="BP5">
+        <v>6.536312849162012</v>
+      </c>
+      <c r="BQ5">
+        <v>31.67597765363129</v>
+      </c>
+      <c r="BR5">
+        <v>18.60335195530726</v>
+      </c>
+      <c r="BT5">
+        <v>7.039106145251397</v>
+      </c>
+      <c r="BU5">
+        <v>12.56983240223464</v>
+      </c>
+      <c r="BV5">
+        <v>11.06145251396648</v>
+      </c>
+      <c r="BW5">
+        <v>5.027932960893855</v>
+      </c>
+      <c r="BX5">
+        <v>13.57541899441341</v>
+      </c>
+      <c r="BY5">
+        <v>3.519553072625698</v>
+      </c>
+      <c r="BZ5">
         <v>3.016759776536313</v>
       </c>
-      <c r="P5">
+      <c r="CA5">
+        <v>9.050279329608941</v>
+      </c>
+      <c r="CB5">
+        <v>4.525139664804469</v>
+      </c>
+      <c r="CC5">
         <v>12.56983240223464</v>
       </c>
-      <c r="S5">
-        <v>9.050279329608941</v>
-      </c>
-      <c r="W5">
-        <v>11.06145251396648</v>
-      </c>
-      <c r="Y5">
-        <v>16.59217877094972</v>
-      </c>
-      <c r="Z5">
-        <v>14.07821229050279</v>
-      </c>
-      <c r="AB5">
-        <v>24.1340782122905</v>
-      </c>
-      <c r="AQ5">
-        <v>31.1731843575419</v>
-      </c>
-      <c r="AR5">
-        <v>25.13966480446928</v>
-      </c>
-      <c r="AS5">
-        <v>28.15642458100559</v>
-      </c>
-      <c r="AT5">
+      <c r="CD5">
+        <v>5.53072625698324</v>
+      </c>
+      <c r="CE5">
+        <v>4.525139664804469</v>
+      </c>
+      <c r="CF5">
+        <v>15.58659217877095</v>
+      </c>
+      <c r="CG5">
+        <v>2.011173184357542</v>
+      </c>
+      <c r="CH5">
         <v>11.56424581005587</v>
       </c>
-      <c r="AU5">
-        <v>17.09497206703911</v>
-      </c>
-      <c r="AX5">
-        <v>13.57541899441341</v>
-      </c>
-      <c r="BB5">
-        <v>6.033519553072626</v>
-      </c>
-      <c r="BC5">
-        <v>20.11173184357542</v>
-      </c>
-      <c r="BE5">
+      <c r="CI5">
+        <v>7.541899441340782</v>
+      </c>
+      <c r="CK5">
+        <v>6.536312849162012</v>
+      </c>
+      <c r="CL5">
+        <v>2.513966480446927</v>
+      </c>
+      <c r="CM5">
+        <v>4.525139664804469</v>
+      </c>
+      <c r="CN5">
+        <v>11.56424581005587</v>
+      </c>
+      <c r="CO5">
+        <v>2.513966480446927</v>
+      </c>
+      <c r="CP5">
+        <v>8.547486033519554</v>
+      </c>
+      <c r="CQ5">
+        <v>25.64245810055866</v>
+      </c>
+      <c r="CR5">
         <v>16.08938547486034</v>
       </c>
-      <c r="BI5">
-        <v>9.553072625698324</v>
-      </c>
-      <c r="BK5">
-        <v>6.536312849162012</v>
-      </c>
-      <c r="BP5">
-        <v>17.09497206703911</v>
-      </c>
-      <c r="BS5">
-        <v>21.62011173184358</v>
-      </c>
-      <c r="BU5">
-        <v>7.541899441340782</v>
-      </c>
-      <c r="BV5">
-        <v>17.09497206703911</v>
-      </c>
-      <c r="BZ5">
-        <v>10.5586592178771</v>
-      </c>
-      <c r="CC5">
-        <v>4.022346368715084</v>
-      </c>
-      <c r="CH5">
-        <v>11.06145251396648</v>
-      </c>
-      <c r="CK5">
+      <c r="CS5">
+        <v>3.016759776536313</v>
+      </c>
+      <c r="CT5">
+        <v>2.011173184357542</v>
+      </c>
+      <c r="CU5">
+        <v>2.011173184357542</v>
+      </c>
+      <c r="CV5">
         <v>7.039106145251397</v>
       </c>
-      <c r="CP5">
-        <v>4.022346368715084</v>
-      </c>
-      <c r="CS5">
-        <v>8.044692737430168</v>
+      <c r="CW5">
+        <v>11.56424581005587</v>
       </c>
     </row>
-    <row r="6" spans="1:97">
+    <row r="6" spans="1:101">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>25.13966480446928</v>
+        <v>21.62011173184358</v>
+      </c>
+      <c r="C6">
+        <v>9.050279329608941</v>
+      </c>
+      <c r="D6">
+        <v>7.541899441340782</v>
       </c>
       <c r="E6">
-        <v>12.06703910614525</v>
+        <v>4.525139664804469</v>
       </c>
       <c r="F6">
-        <v>23.12849162011173</v>
+        <v>13.57541899441341</v>
       </c>
       <c r="H6">
-        <v>24.1340782122905</v>
+        <v>23.63128491620112</v>
       </c>
       <c r="I6">
+        <v>4.022346368715084</v>
+      </c>
+      <c r="J6">
         <v>15.08379888268156</v>
       </c>
       <c r="K6">
-        <v>12.06703910614525</v>
+        <v>27.6536312849162</v>
+      </c>
+      <c r="L6">
+        <v>3.016759776536313</v>
       </c>
       <c r="M6">
-        <v>8.547486033519554</v>
+        <v>8.044692737430168</v>
       </c>
       <c r="N6">
+        <v>9.050279329608941</v>
+      </c>
+      <c r="O6">
+        <v>9.050279329608941</v>
+      </c>
+      <c r="P6">
         <v>17.59776536312849</v>
       </c>
-      <c r="P6">
-        <v>10.05586592178771</v>
+      <c r="Q6">
+        <v>2.011173184357542</v>
+      </c>
+      <c r="R6">
+        <v>24.63687150837989</v>
       </c>
       <c r="S6">
-        <v>8.044692737430168</v>
+        <v>2.011173184357542</v>
+      </c>
+      <c r="T6">
+        <v>4.525139664804469</v>
+      </c>
+      <c r="U6">
+        <v>11.56424581005587</v>
+      </c>
+      <c r="V6">
+        <v>7.039106145251397</v>
       </c>
       <c r="W6">
-        <v>15.08379888268156</v>
+        <v>9.553072625698324</v>
+      </c>
+      <c r="X6">
+        <v>5.53072625698324</v>
       </c>
       <c r="Y6">
         <v>17.09497206703911</v>
       </c>
       <c r="Z6">
-        <v>16.08938547486034</v>
+        <v>10.05586592178771</v>
       </c>
       <c r="AA6">
-        <v>12.56983240223464</v>
+        <v>10.05586592178771</v>
       </c>
       <c r="AB6">
-        <v>28.65921787709497</v>
+        <v>4.022346368715084</v>
+      </c>
+      <c r="AC6">
+        <v>2.513966480446927</v>
+      </c>
+      <c r="AD6">
+        <v>10.05586592178771</v>
+      </c>
+      <c r="AF6">
+        <v>18.10055865921788</v>
+      </c>
+      <c r="AG6">
+        <v>5.027932960893855</v>
+      </c>
+      <c r="AH6">
+        <v>2.513966480446927</v>
+      </c>
+      <c r="AI6">
+        <v>11.06145251396648</v>
+      </c>
+      <c r="AJ6">
+        <v>14.58100558659218</v>
+      </c>
+      <c r="AK6">
+        <v>6.536312849162012</v>
+      </c>
+      <c r="AL6">
+        <v>4.022346368715084</v>
+      </c>
+      <c r="AM6">
+        <v>14.07821229050279</v>
+      </c>
+      <c r="AN6">
+        <v>15.08379888268156</v>
+      </c>
+      <c r="AO6">
+        <v>7.039106145251397</v>
+      </c>
+      <c r="AP6">
+        <v>17.09497206703911</v>
       </c>
       <c r="AQ6">
-        <v>46.75977653631285</v>
+        <v>31.1731843575419</v>
       </c>
       <c r="AR6">
-        <v>22.12290502793296</v>
+        <v>6.033519553072626</v>
       </c>
       <c r="AS6">
-        <v>34.18994413407822</v>
+        <v>5.027932960893855</v>
       </c>
       <c r="AT6">
+        <v>17.09497206703911</v>
+      </c>
+      <c r="AU6">
+        <v>1.005586592178771</v>
+      </c>
+      <c r="AV6">
+        <v>46.25698324022346</v>
+      </c>
+      <c r="AW6">
+        <v>7.541899441340782</v>
+      </c>
+      <c r="AX6">
+        <v>5.027932960893855</v>
+      </c>
+      <c r="AY6">
+        <v>6.033519553072626</v>
+      </c>
+      <c r="AZ6">
+        <v>11.56424581005587</v>
+      </c>
+      <c r="BA6">
+        <v>8.547486033519554</v>
+      </c>
+      <c r="BB6">
+        <v>5.027932960893855</v>
+      </c>
+      <c r="BC6">
+        <v>12.06703910614525</v>
+      </c>
+      <c r="BD6">
+        <v>17.09497206703911</v>
+      </c>
+      <c r="BE6">
+        <v>6.033519553072626</v>
+      </c>
+      <c r="BF6">
+        <v>10.05586592178771</v>
+      </c>
+      <c r="BG6">
         <v>11.06145251396648</v>
       </c>
-      <c r="AU6">
-        <v>18.60335195530726</v>
-      </c>
-      <c r="AX6">
-        <v>7.541899441340782</v>
-      </c>
-      <c r="AZ6">
+      <c r="BH6">
+        <v>3.519553072625698</v>
+      </c>
+      <c r="BI6">
         <v>19.60893854748604</v>
       </c>
-      <c r="BB6">
-        <v>8.044692737430168</v>
-      </c>
-      <c r="BE6">
-        <v>14.58100558659218</v>
-      </c>
-      <c r="BI6">
+      <c r="BJ6">
+        <v>10.05586592178771</v>
+      </c>
+      <c r="BK6">
+        <v>2.513966480446927</v>
+      </c>
+      <c r="BL6">
+        <v>5.53072625698324</v>
+      </c>
+      <c r="BM6">
+        <v>26.14525139664805</v>
+      </c>
+      <c r="BN6">
+        <v>6.536312849162012</v>
+      </c>
+      <c r="BO6">
+        <v>11.06145251396648</v>
+      </c>
+      <c r="BP6">
         <v>9.050279329608941</v>
       </c>
-      <c r="BJ6">
-        <v>20.11173184357542</v>
-      </c>
-      <c r="BK6">
+      <c r="BQ6">
+        <v>28.15642458100559</v>
+      </c>
+      <c r="BR6">
+        <v>18.10055865921788</v>
+      </c>
+      <c r="BS6">
+        <v>4.525139664804469</v>
+      </c>
+      <c r="BT6">
+        <v>9.050279329608941</v>
+      </c>
+      <c r="BU6">
+        <v>11.06145251396648</v>
+      </c>
+      <c r="BV6">
+        <v>8.547486033519554</v>
+      </c>
+      <c r="BW6">
         <v>6.536312849162012</v>
       </c>
-      <c r="BP6">
-        <v>24.63687150837989</v>
-      </c>
-      <c r="BR6">
-        <v>22.62569832402235</v>
-      </c>
-      <c r="BS6">
-        <v>20.61452513966481</v>
-      </c>
-      <c r="BU6">
-        <v>7.039106145251397</v>
-      </c>
-      <c r="BV6">
+      <c r="BX6">
+        <v>10.5586592178771</v>
+      </c>
+      <c r="BY6">
+        <v>5.027932960893855</v>
+      </c>
+      <c r="BZ6">
+        <v>3.519553072625698</v>
+      </c>
+      <c r="CA6">
         <v>12.06703910614525</v>
       </c>
-      <c r="BZ6">
+      <c r="CB6">
+        <v>5.027932960893855</v>
+      </c>
+      <c r="CC6">
+        <v>9.553072625698324</v>
+      </c>
+      <c r="CD6">
+        <v>10.5586592178771</v>
+      </c>
+      <c r="CE6">
+        <v>3.016759776536313</v>
+      </c>
+      <c r="CF6">
+        <v>6.033519553072626</v>
+      </c>
+      <c r="CG6">
+        <v>5.53072625698324</v>
+      </c>
+      <c r="CH6">
         <v>9.050279329608941</v>
       </c>
-      <c r="CA6">
-        <v>8.044692737430168</v>
-      </c>
-      <c r="CC6">
-        <v>12.06703910614525</v>
-      </c>
-      <c r="CF6">
-        <v>30.16759776536313</v>
-      </c>
-      <c r="CG6">
-        <v>25.13966480446928</v>
-      </c>
-      <c r="CH6">
-        <v>11.06145251396648</v>
+      <c r="CI6">
+        <v>4.022346368715084</v>
       </c>
       <c r="CK6">
-        <v>8.044692737430168</v>
+        <v>5.027932960893855</v>
+      </c>
+      <c r="CL6">
+        <v>4.525139664804469</v>
+      </c>
+      <c r="CM6">
+        <v>6.536312849162012</v>
       </c>
       <c r="CN6">
-        <v>23.63128491620112</v>
+        <v>4.525139664804469</v>
+      </c>
+      <c r="CO6">
+        <v>3.016759776536313</v>
       </c>
       <c r="CP6">
-        <v>7.039106145251397</v>
+        <v>9.553072625698324</v>
+      </c>
+      <c r="CQ6">
+        <v>16.59217877094972</v>
       </c>
       <c r="CR6">
         <v>5.027932960893855</v>
       </c>
       <c r="CS6">
-        <v>7.039106145251397</v>
+        <v>3.519553072625698</v>
+      </c>
+      <c r="CT6">
+        <v>2.011173184357542</v>
+      </c>
+      <c r="CU6">
+        <v>2.011173184357542</v>
+      </c>
+      <c r="CV6">
+        <v>3.016759776536313</v>
       </c>
     </row>
-    <row r="7" spans="1:97">
+    <row r="7" spans="1:101">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>26.14525139664805</v>
+        <v>22.62569832402235</v>
+      </c>
+      <c r="C7">
+        <v>3.519553072625698</v>
+      </c>
+      <c r="D7">
+        <v>4.022346368715084</v>
       </c>
       <c r="E7">
+        <v>4.022346368715084</v>
+      </c>
+      <c r="F7">
+        <v>8.547486033519554</v>
+      </c>
+      <c r="H7">
+        <v>19.10614525139665</v>
+      </c>
+      <c r="I7">
+        <v>4.525139664804469</v>
+      </c>
+      <c r="J7">
+        <v>13.57541899441341</v>
+      </c>
+      <c r="K7">
+        <v>21.62011173184358</v>
+      </c>
+      <c r="L7">
+        <v>3.016759776536313</v>
+      </c>
+      <c r="M7">
+        <v>6.033519553072626</v>
+      </c>
+      <c r="N7">
         <v>11.06145251396648</v>
       </c>
-      <c r="F7">
-        <v>15.08379888268156</v>
-      </c>
-      <c r="H7">
+      <c r="O7">
+        <v>8.547486033519554</v>
+      </c>
+      <c r="P7">
+        <v>11.06145251396648</v>
+      </c>
+      <c r="Q7">
+        <v>3.519553072625698</v>
+      </c>
+      <c r="R7">
+        <v>5.027932960893855</v>
+      </c>
+      <c r="S7">
+        <v>3.519553072625698</v>
+      </c>
+      <c r="T7">
+        <v>6.033519553072626</v>
+      </c>
+      <c r="U7">
+        <v>8.547486033519554</v>
+      </c>
+      <c r="V7">
+        <v>5.53072625698324</v>
+      </c>
+      <c r="W7">
+        <v>11.56424581005587</v>
+      </c>
+      <c r="X7">
+        <v>4.525139664804469</v>
+      </c>
+      <c r="Y7">
+        <v>18.60335195530726</v>
+      </c>
+      <c r="Z7">
+        <v>8.044692737430168</v>
+      </c>
+      <c r="AA7">
+        <v>10.05586592178771</v>
+      </c>
+      <c r="AB7">
+        <v>3.519553072625698</v>
+      </c>
+      <c r="AC7">
+        <v>4.525139664804469</v>
+      </c>
+      <c r="AD7">
+        <v>4.525139664804469</v>
+      </c>
+      <c r="AE7">
+        <v>30.16759776536313</v>
+      </c>
+      <c r="AF7">
+        <v>14.07821229050279</v>
+      </c>
+      <c r="AG7">
+        <v>14.58100558659218</v>
+      </c>
+      <c r="AH7">
+        <v>3.519553072625698</v>
+      </c>
+      <c r="AI7">
+        <v>10.5586592178771</v>
+      </c>
+      <c r="AJ7">
+        <v>8.044692737430168</v>
+      </c>
+      <c r="AK7">
+        <v>12.06703910614525</v>
+      </c>
+      <c r="AL7">
+        <v>10.5586592178771</v>
+      </c>
+      <c r="AM7">
+        <v>13.57541899441341</v>
+      </c>
+      <c r="AN7">
+        <v>11.06145251396648</v>
+      </c>
+      <c r="AO7">
+        <v>6.033519553072626</v>
+      </c>
+      <c r="AP7">
+        <v>17.09497206703911</v>
+      </c>
+      <c r="AQ7">
         <v>18.10055865921788</v>
       </c>
-      <c r="I7">
-        <v>23.12849162011173</v>
-      </c>
-      <c r="K7">
-        <v>12.06703910614525</v>
-      </c>
-      <c r="M7">
+      <c r="AR7">
+        <v>8.547486033519554</v>
+      </c>
+      <c r="AS7">
+        <v>2.513966480446927</v>
+      </c>
+      <c r="AT7">
+        <v>5.027932960893855</v>
+      </c>
+      <c r="AU7">
+        <v>4.525139664804469</v>
+      </c>
+      <c r="AV7">
+        <v>20.61452513966481</v>
+      </c>
+      <c r="AW7">
+        <v>11.56424581005587</v>
+      </c>
+      <c r="AX7">
+        <v>10.05586592178771</v>
+      </c>
+      <c r="AY7">
+        <v>5.53072625698324</v>
+      </c>
+      <c r="AZ7">
         <v>10.5586592178771</v>
       </c>
-      <c r="N7">
-        <v>15.08379888268156</v>
-      </c>
-      <c r="O7">
-        <v>3.519553072625698</v>
-      </c>
-      <c r="P7">
-        <v>12.06703910614525</v>
-      </c>
-      <c r="S7">
+      <c r="BA7">
+        <v>9.553072625698324</v>
+      </c>
+      <c r="BB7">
+        <v>2.011173184357542</v>
+      </c>
+      <c r="BC7">
+        <v>13.07262569832402</v>
+      </c>
+      <c r="BD7">
+        <v>14.07821229050279</v>
+      </c>
+      <c r="BE7">
+        <v>6.536312849162012</v>
+      </c>
+      <c r="BF7">
+        <v>3.016759776536313</v>
+      </c>
+      <c r="BG7">
+        <v>9.553072625698324</v>
+      </c>
+      <c r="BH7">
+        <v>2.011173184357542</v>
+      </c>
+      <c r="BI7">
+        <v>19.10614525139665</v>
+      </c>
+      <c r="BJ7">
         <v>9.050279329608941</v>
       </c>
-      <c r="W7">
-        <v>12.56983240223464</v>
-      </c>
-      <c r="Y7">
-        <v>19.10614525139665</v>
-      </c>
-      <c r="Z7">
-        <v>10.05586592178771</v>
-      </c>
-      <c r="AB7">
+      <c r="BK7">
+        <v>1.508379888268156</v>
+      </c>
+      <c r="BL7">
+        <v>7.039106145251397</v>
+      </c>
+      <c r="BM7">
+        <v>18.10055865921788</v>
+      </c>
+      <c r="BN7">
+        <v>5.027932960893855</v>
+      </c>
+      <c r="BO7">
+        <v>18.60335195530726</v>
+      </c>
+      <c r="BP7">
+        <v>1.508379888268156</v>
+      </c>
+      <c r="BQ7">
+        <v>30.16759776536313</v>
+      </c>
+      <c r="BR7">
+        <v>13.07262569832402</v>
+      </c>
+      <c r="BT7">
+        <v>11.56424581005587</v>
+      </c>
+      <c r="BU7">
+        <v>19.60893854748604</v>
+      </c>
+      <c r="BV7">
+        <v>9.553072625698324</v>
+      </c>
+      <c r="BW7">
+        <v>3.016759776536313</v>
+      </c>
+      <c r="BX7">
+        <v>11.06145251396648</v>
+      </c>
+      <c r="BY7">
+        <v>2.513966480446927</v>
+      </c>
+      <c r="BZ7">
+        <v>3.519553072625698</v>
+      </c>
+      <c r="CA7">
+        <v>7.541899441340782</v>
+      </c>
+      <c r="CB7">
+        <v>4.525139664804469</v>
+      </c>
+      <c r="CC7">
         <v>10.5586592178771</v>
       </c>
-      <c r="AK7">
+      <c r="CD7">
+        <v>8.547486033519554</v>
+      </c>
+      <c r="CE7">
+        <v>3.519553072625698</v>
+      </c>
+      <c r="CF7">
         <v>9.050279329608941</v>
       </c>
-      <c r="AQ7">
-        <v>22.62569832402235</v>
-      </c>
-      <c r="AR7">
-        <v>22.12290502793296</v>
-      </c>
-      <c r="AS7">
-        <v>18.10055865921788</v>
-      </c>
-      <c r="AT7">
+      <c r="CG7">
+        <v>4.022346368715084</v>
+      </c>
+      <c r="CH7">
+        <v>11.56424581005587</v>
+      </c>
+      <c r="CI7">
+        <v>6.536312849162012</v>
+      </c>
+      <c r="CK7">
+        <v>10.5586592178771</v>
+      </c>
+      <c r="CL7">
+        <v>2.513966480446927</v>
+      </c>
+      <c r="CM7">
+        <v>3.519553072625698</v>
+      </c>
+      <c r="CN7">
+        <v>5.027932960893855</v>
+      </c>
+      <c r="CO7">
+        <v>3.519553072625698</v>
+      </c>
+      <c r="CP7">
         <v>7.541899441340782</v>
       </c>
-      <c r="AU7">
-        <v>14.07821229050279</v>
-      </c>
-      <c r="AX7">
-        <v>9.553072625698324</v>
-      </c>
-      <c r="BB7">
-        <v>5.53072625698324</v>
-      </c>
-      <c r="BC7">
-        <v>16.59217877094972</v>
-      </c>
-      <c r="BI7">
-        <v>7.541899441340782</v>
-      </c>
-      <c r="BJ7">
-        <v>19.60893854748604</v>
-      </c>
-      <c r="BK7">
-        <v>5.027932960893855</v>
-      </c>
-      <c r="BP7">
-        <v>13.07262569832402</v>
-      </c>
-      <c r="BR7">
-        <v>16.59217877094972</v>
-      </c>
-      <c r="BS7">
-        <v>18.10055865921788</v>
-      </c>
-      <c r="BU7">
-        <v>10.05586592178771</v>
-      </c>
-      <c r="BV7">
-        <v>7.541899441340782</v>
-      </c>
-      <c r="CF7">
-        <v>31.1731843575419</v>
-      </c>
-      <c r="CG7">
-        <v>32.17877094972067</v>
-      </c>
-      <c r="CH7">
-        <v>7.541899441340782</v>
+      <c r="CQ7">
+        <v>13.57541899441341</v>
+      </c>
+      <c r="CR7">
+        <v>6.536312849162012</v>
+      </c>
+      <c r="CS7">
+        <v>3.016759776536313</v>
+      </c>
+      <c r="CT7">
+        <v>1.508379888268156</v>
+      </c>
+      <c r="CU7">
+        <v>2.011173184357542</v>
+      </c>
+      <c r="CV7">
+        <v>3.519553072625698</v>
       </c>
     </row>
   </sheetData>
